--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1173,7 +1173,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>空堂 - Free Period</t>
+          <t>嵌入式微算機系統 - Embeded Microcomputer System</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1205,7 +1205,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>空堂 - Free Period</t>
+          <t>嵌入式微算機系統 - Embeded Microcomputer System</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>空堂 - Free Period</t>
+          <t>嵌入式微算機系統 - Embeded Microcomputer System</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
